--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H2">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.2335142893416</v>
+        <v>162.98837</v>
       </c>
       <c r="N2">
-        <v>29.2335142893416</v>
+        <v>488.96511</v>
       </c>
       <c r="O2">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="P2">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="Q2">
-        <v>260.4630063417678</v>
+        <v>5559.83026551014</v>
       </c>
       <c r="R2">
-        <v>260.4630063417678</v>
+        <v>50038.47238959125</v>
       </c>
       <c r="S2">
-        <v>0.1635024584947776</v>
+        <v>0.4190599577209056</v>
       </c>
       <c r="T2">
-        <v>0.1635024584947776</v>
+        <v>0.4190599577209056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H3">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.468157930509914</v>
+        <v>0.6513563333333333</v>
       </c>
       <c r="N3">
-        <v>0.468157930509914</v>
+        <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="P3">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="Q3">
-        <v>4.171165355504677</v>
+        <v>22.21895130123933</v>
       </c>
       <c r="R3">
-        <v>4.171165355504677</v>
+        <v>199.970561711154</v>
       </c>
       <c r="S3">
-        <v>0.00261839790606722</v>
+        <v>0.001674704505038677</v>
       </c>
       <c r="T3">
-        <v>0.00261839790606722</v>
+        <v>0.001674704505038677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H4">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39326871088084</v>
+        <v>0.8364996666666666</v>
       </c>
       <c r="N4">
-        <v>0.39326871088084</v>
+        <v>2.509499</v>
       </c>
       <c r="O4">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="P4">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="Q4">
-        <v>3.503921893288118</v>
+        <v>28.53452773239266</v>
       </c>
       <c r="R4">
-        <v>3.503921893288118</v>
+        <v>256.810749591534</v>
       </c>
       <c r="S4">
-        <v>0.002199544004243542</v>
+        <v>0.002150727165054077</v>
       </c>
       <c r="T4">
-        <v>0.002199544004243542</v>
+        <v>0.002150727165054077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.2335142893416</v>
+        <v>162.98837</v>
       </c>
       <c r="N5">
-        <v>29.2335142893416</v>
+        <v>488.96511</v>
       </c>
       <c r="O5">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="P5">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="Q5">
-        <v>1015.031391031021</v>
+        <v>5685.378685696353</v>
       </c>
       <c r="R5">
-        <v>1015.031391031021</v>
+        <v>51168.40817126718</v>
       </c>
       <c r="S5">
-        <v>0.6371735096429799</v>
+        <v>0.4285228933039461</v>
       </c>
       <c r="T5">
-        <v>0.6371735096429799</v>
+        <v>0.4285228933039461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.468157930509914</v>
+        <v>0.6513563333333333</v>
       </c>
       <c r="N6">
-        <v>0.468157930509914</v>
+        <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="P6">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="Q6">
-        <v>16.25514437725115</v>
+        <v>22.72068500548022</v>
       </c>
       <c r="R6">
-        <v>16.25514437725115</v>
+        <v>204.486165049322</v>
       </c>
       <c r="S6">
-        <v>0.01020396756605326</v>
+        <v>0.0017125215776552</v>
       </c>
       <c r="T6">
-        <v>0.01020396756605326</v>
+        <v>0.0017125215776552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39326871088084</v>
+        <v>0.8364996666666666</v>
       </c>
       <c r="N7">
-        <v>0.39326871088084</v>
+        <v>2.509499</v>
       </c>
       <c r="O7">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="P7">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="Q7">
-        <v>13.65487853097069</v>
+        <v>29.17887561829577</v>
       </c>
       <c r="R7">
-        <v>13.65487853097069</v>
+        <v>262.609880564662</v>
       </c>
       <c r="S7">
-        <v>0.008571682564900368</v>
+        <v>0.002199293467428298</v>
       </c>
       <c r="T7">
-        <v>0.008571682564900368</v>
+        <v>0.002199293467428298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H8">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.2335142893416</v>
+        <v>162.98837</v>
       </c>
       <c r="N8">
-        <v>29.2335142893416</v>
+        <v>488.96511</v>
       </c>
       <c r="O8">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="P8">
-        <v>0.9713763637757773</v>
+        <v>0.9909539753179891</v>
       </c>
       <c r="Q8">
-        <v>271.9294782532455</v>
+        <v>1902.160064112077</v>
       </c>
       <c r="R8">
-        <v>271.9294782532455</v>
+        <v>17119.44057700869</v>
       </c>
       <c r="S8">
-        <v>0.1707003956380197</v>
+        <v>0.1433711242931375</v>
       </c>
       <c r="T8">
-        <v>0.1707003956380197</v>
+        <v>0.1433711242931375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H9">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.468157930509914</v>
+        <v>0.6513563333333333</v>
       </c>
       <c r="N9">
-        <v>0.468157930509914</v>
+        <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="P9">
-        <v>0.0155560342048002</v>
+        <v>0.003960185305646138</v>
       </c>
       <c r="Q9">
-        <v>4.35479431325488</v>
+        <v>7.601671240550111</v>
       </c>
       <c r="R9">
-        <v>4.35479431325488</v>
+        <v>68.41504116495099</v>
       </c>
       <c r="S9">
-        <v>0.002733668732679718</v>
+        <v>0.0005729592229522612</v>
       </c>
       <c r="T9">
-        <v>0.002733668732679718</v>
+        <v>0.0005729592229522611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H10">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39326871088084</v>
+        <v>0.8364996666666666</v>
       </c>
       <c r="N10">
-        <v>0.39326871088084</v>
+        <v>2.509499</v>
       </c>
       <c r="O10">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="P10">
-        <v>0.01306760201942253</v>
+        <v>0.005085839376364744</v>
       </c>
       <c r="Q10">
-        <v>3.658176512912222</v>
+        <v>9.762391387657889</v>
       </c>
       <c r="R10">
-        <v>3.658176512912222</v>
+        <v>87.861522488921</v>
       </c>
       <c r="S10">
-        <v>0.002296375450278623</v>
+        <v>0.0007358187438823689</v>
       </c>
       <c r="T10">
-        <v>0.002296375450278623</v>
+        <v>0.0007358187438823687</v>
       </c>
     </row>
   </sheetData>
